--- a/Code/Results/Cases/Case_5_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.208418592485884</v>
+        <v>0.6681570004208766</v>
       </c>
       <c r="C2">
-        <v>0.1024644753220336</v>
+        <v>0.1604053655967164</v>
       </c>
       <c r="D2">
-        <v>0.0642546648908251</v>
+        <v>0.04564022844408555</v>
       </c>
       <c r="E2">
-        <v>0.07355343990363039</v>
+        <v>0.1136851970799135</v>
       </c>
       <c r="F2">
-        <v>0.5966268085527346</v>
+        <v>0.9761275492257369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.955579762343973</v>
+        <v>0.3453905516442148</v>
       </c>
       <c r="L2">
-        <v>0.2512144197888659</v>
+        <v>0.1949250355620507</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8521434783327209</v>
+        <v>1.777081668538464</v>
       </c>
       <c r="O2">
-        <v>1.834282180501901</v>
+        <v>3.483441505578071</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.052050340845284</v>
+        <v>0.6256801764266697</v>
       </c>
       <c r="C3">
-        <v>0.1018822296516042</v>
+        <v>0.1602524579789559</v>
       </c>
       <c r="D3">
-        <v>0.05906228240895928</v>
+        <v>0.0437770337975536</v>
       </c>
       <c r="E3">
-        <v>0.06861423078537499</v>
+        <v>0.1131101741652856</v>
       </c>
       <c r="F3">
-        <v>0.5678549162471498</v>
+        <v>0.9753539534409441</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8304474726730291</v>
+        <v>0.3087244553701112</v>
       </c>
       <c r="L3">
-        <v>0.2215335133651308</v>
+        <v>0.1878130467408994</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8947188306507154</v>
+        <v>1.795260466065978</v>
       </c>
       <c r="O3">
-        <v>1.787019331169631</v>
+        <v>3.494724656376036</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9565055475980273</v>
+        <v>0.5998426459453867</v>
       </c>
       <c r="C4">
-        <v>0.1015454881517464</v>
+        <v>0.1601689875636119</v>
       </c>
       <c r="D4">
-        <v>0.05585841245675738</v>
+        <v>0.04261964192335199</v>
       </c>
       <c r="E4">
-        <v>0.06568216390493475</v>
+        <v>0.1128139854476196</v>
       </c>
       <c r="F4">
-        <v>0.5512226241780382</v>
+        <v>0.9754090563247644</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7537647392714177</v>
+        <v>0.2862491978764012</v>
       </c>
       <c r="L4">
-        <v>0.2035279844609477</v>
+        <v>0.1835499510698924</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.921983165776858</v>
+        <v>1.806992143303564</v>
       </c>
       <c r="O4">
-        <v>1.761348383418976</v>
+        <v>3.503407944328472</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9176711630624368</v>
+        <v>0.5893754893461676</v>
       </c>
       <c r="C5">
-        <v>0.1014134443025299</v>
+        <v>0.1601376117360331</v>
       </c>
       <c r="D5">
-        <v>0.05454865502816375</v>
+        <v>0.04214465020790215</v>
       </c>
       <c r="E5">
-        <v>0.06451132950791205</v>
+        <v>0.1127076087529169</v>
       </c>
       <c r="F5">
-        <v>0.5446919918706712</v>
+        <v>0.9755648813239333</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7225419964381246</v>
+        <v>0.2771003453930376</v>
       </c>
       <c r="L5">
-        <v>0.1962407873559897</v>
+        <v>0.1818388534496052</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9333694546550628</v>
+        <v>1.811916181421156</v>
       </c>
       <c r="O5">
-        <v>1.751691831607175</v>
+        <v>3.507388020435528</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9112283773142735</v>
+        <v>0.5876411801836241</v>
       </c>
       <c r="C6">
-        <v>0.1013918303938546</v>
+        <v>0.1601325617832323</v>
       </c>
       <c r="D6">
-        <v>0.05433091426601777</v>
+        <v>0.04206557674898193</v>
       </c>
       <c r="E6">
-        <v>0.06431832649633762</v>
+        <v>0.1126908106308555</v>
       </c>
       <c r="F6">
-        <v>0.5436221506836674</v>
+        <v>0.97559881335075</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7173587389963814</v>
+        <v>0.2755818031805006</v>
       </c>
       <c r="L6">
-        <v>0.1950336504506822</v>
+        <v>0.1815563084686715</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9352766154517003</v>
+        <v>1.812742468205569</v>
       </c>
       <c r="O6">
-        <v>1.750135900214161</v>
+        <v>3.508075583253046</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9559814258853692</v>
+        <v>0.5997012309481136</v>
       </c>
       <c r="C7">
-        <v>0.1015436864322723</v>
+        <v>0.16016855370653</v>
       </c>
       <c r="D7">
-        <v>0.0558407656872717</v>
+        <v>0.04261324953695578</v>
       </c>
       <c r="E7">
-        <v>0.06566627809156955</v>
+        <v>0.1128124927954275</v>
       </c>
       <c r="F7">
-        <v>0.5511335655044505</v>
+        <v>0.975410617727519</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7533435673813642</v>
+        <v>0.2861257721453114</v>
       </c>
       <c r="L7">
-        <v>0.203429509660964</v>
+        <v>0.1835267686367104</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9221356167115946</v>
+        <v>1.807057970453677</v>
       </c>
       <c r="O7">
-        <v>1.761214942351586</v>
+        <v>3.503459832935476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.154396011538637</v>
+        <v>0.6534608408236409</v>
       </c>
       <c r="C8">
-        <v>0.1022593829605114</v>
+        <v>0.1603504931666215</v>
       </c>
       <c r="D8">
-        <v>0.06246747006791509</v>
+        <v>0.04500058810113927</v>
       </c>
       <c r="E8">
-        <v>0.07182871479790265</v>
+        <v>0.1134751359153938</v>
       </c>
       <c r="F8">
-        <v>0.5864838111446815</v>
+        <v>0.975750833764117</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9123961529680855</v>
+        <v>0.3327404938336542</v>
       </c>
       <c r="L8">
-        <v>0.2409320991920509</v>
+        <v>0.1924513417285709</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8665863962947995</v>
+        <v>1.783231451866615</v>
       </c>
       <c r="O8">
-        <v>1.81726781778076</v>
+        <v>3.48696769487924</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.547978156607286</v>
+        <v>0.7607922397304776</v>
       </c>
       <c r="C9">
-        <v>0.1038297329586655</v>
+        <v>0.160789084672011</v>
       </c>
       <c r="D9">
-        <v>0.07534780401370966</v>
+        <v>0.0495752740928026</v>
       </c>
       <c r="E9">
-        <v>0.08477375680088528</v>
+        <v>0.1152251885736959</v>
       </c>
       <c r="F9">
-        <v>0.6646184698578566</v>
+        <v>0.980622176780507</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226038351035243</v>
+        <v>0.4244360343206779</v>
       </c>
       <c r="L9">
-        <v>0.3164404143302306</v>
+        <v>0.2107730314314864</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7668698369493967</v>
+        <v>1.741028368442902</v>
       </c>
       <c r="O9">
-        <v>1.955544091639268</v>
+        <v>3.468550780601646</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.841078511362838</v>
+        <v>0.8407906717435765</v>
       </c>
       <c r="C10">
-        <v>0.1050887864407315</v>
+        <v>0.161160135818065</v>
       </c>
       <c r="D10">
-        <v>0.08475693154764485</v>
+        <v>0.05287049434146951</v>
       </c>
       <c r="E10">
-        <v>0.09490090627642189</v>
+        <v>0.1167850329405518</v>
       </c>
       <c r="F10">
-        <v>0.7282976180853069</v>
+        <v>0.9867636300129163</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.458377565736924</v>
+        <v>0.4919627630805508</v>
       </c>
       <c r="L10">
-        <v>0.3734587975501427</v>
+        <v>0.2247330074572744</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6996699236551143</v>
+        <v>1.712775750114286</v>
       </c>
       <c r="O10">
-        <v>2.077057824621392</v>
+        <v>3.4635071857806</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.975557624505853</v>
+        <v>0.8774279078908478</v>
       </c>
       <c r="C11">
-        <v>0.1056853629199281</v>
+        <v>0.1613393189856325</v>
       </c>
       <c r="D11">
-        <v>0.08902942792266089</v>
+        <v>0.0543551657374266</v>
       </c>
       <c r="E11">
-        <v>0.09966355690632867</v>
+        <v>0.1175540468047345</v>
       </c>
       <c r="F11">
-        <v>0.7588424859292218</v>
+        <v>0.9901139800157068</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.564690863499635</v>
+        <v>0.522713887515124</v>
       </c>
       <c r="L11">
-        <v>0.3998145137981908</v>
+        <v>0.2311919513841616</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6705203327840401</v>
+        <v>1.700520497415758</v>
       </c>
       <c r="O11">
-        <v>2.13728827292951</v>
+        <v>3.463055735569839</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.026671167042593</v>
+        <v>0.8913362473992379</v>
       </c>
       <c r="C12">
-        <v>0.1059147817090818</v>
+        <v>0.1614086459383088</v>
       </c>
       <c r="D12">
-        <v>0.09064651041575189</v>
+        <v>0.05491529280821084</v>
       </c>
       <c r="E12">
-        <v>0.101491359721475</v>
+        <v>0.1178537829382407</v>
       </c>
       <c r="F12">
-        <v>0.7706547318893229</v>
+        <v>0.9914626671603912</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.60505590847734</v>
+        <v>0.5343628709393045</v>
       </c>
       <c r="L12">
-        <v>0.4098619949935909</v>
+        <v>0.2336533325760399</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6596959025171669</v>
+        <v>1.695965610553354</v>
       </c>
       <c r="O12">
-        <v>2.160863961937508</v>
+        <v>3.463149727143303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.015654128604695</v>
+        <v>0.8883393092922915</v>
       </c>
       <c r="C13">
-        <v>0.1058652148315531</v>
+        <v>0.1613936498900728</v>
       </c>
       <c r="D13">
-        <v>0.09029827425202086</v>
+        <v>0.05479475256212396</v>
       </c>
       <c r="E13">
-        <v>0.1010965978954808</v>
+        <v>0.1177888504513263</v>
       </c>
       <c r="F13">
-        <v>0.7680995185539103</v>
+        <v>0.9911686468554421</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.596357549528278</v>
+        <v>0.5318538755440727</v>
       </c>
       <c r="L13">
-        <v>0.407694986162042</v>
+        <v>0.2331225411532358</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6620174632214333</v>
+        <v>1.69694276497825</v>
       </c>
       <c r="O13">
-        <v>2.155751446872614</v>
+        <v>3.463117701821034</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.97975882829374</v>
+        <v>0.8785714656409596</v>
       </c>
       <c r="C14">
-        <v>0.1057041665285112</v>
+        <v>0.1613449931260647</v>
       </c>
       <c r="D14">
-        <v>0.08916248091581735</v>
+        <v>0.05440128966650093</v>
       </c>
       <c r="E14">
-        <v>0.09981343324623637</v>
+        <v>0.1175785354872723</v>
       </c>
       <c r="F14">
-        <v>0.7598092527036187</v>
+        <v>0.9902233346552407</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.568009482484285</v>
+        <v>0.5236721752428934</v>
       </c>
       <c r="L14">
-        <v>0.4006397382494242</v>
+        <v>0.2313941401271364</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6696254559249706</v>
+        <v>1.700144041971906</v>
       </c>
       <c r="O14">
-        <v>2.139212141485928</v>
+        <v>3.46305815875678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.957797315756864</v>
+        <v>0.8725928663614866</v>
       </c>
       <c r="C15">
-        <v>0.1056059792608437</v>
+        <v>0.1613153808426802</v>
       </c>
       <c r="D15">
-        <v>0.08846667718624701</v>
+        <v>0.05416000995261072</v>
       </c>
       <c r="E15">
-        <v>0.09903067945156252</v>
+        <v>0.1174508214333905</v>
       </c>
       <c r="F15">
-        <v>0.7547637855240055</v>
+        <v>0.9896547181361655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.550659875098546</v>
+        <v>0.5186611788586504</v>
       </c>
       <c r="L15">
-        <v>0.3963271572972076</v>
+        <v>0.230337463276868</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6743137243703305</v>
+        <v>1.70211610666756</v>
       </c>
       <c r="O15">
-        <v>2.129183030525041</v>
+        <v>3.463056188856058</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.83231509706664</v>
+        <v>0.8384012237601155</v>
       </c>
       <c r="C16">
-        <v>0.1050502850132347</v>
+        <v>0.1611486331463325</v>
       </c>
       <c r="D16">
-        <v>0.0844775825969748</v>
+        <v>0.05277317698605799</v>
       </c>
       <c r="E16">
-        <v>0.09459294911177452</v>
+        <v>0.1167359703864292</v>
       </c>
       <c r="F16">
-        <v>0.7263347499692117</v>
+        <v>0.9865558719802578</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.451443680788401</v>
+        <v>0.4899537212524478</v>
       </c>
       <c r="L16">
-        <v>0.3717453894585532</v>
+        <v>0.2243130763582855</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7016043058862964</v>
+        <v>1.713588678272762</v>
       </c>
       <c r="O16">
-        <v>2.073225950226345</v>
+        <v>3.463573767836522</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755646230363794</v>
+        <v>0.8174881541654031</v>
       </c>
       <c r="C17">
-        <v>0.1047155425857014</v>
+        <v>0.1610489857897406</v>
       </c>
       <c r="D17">
-        <v>0.08202861916149118</v>
+        <v>0.05191871009630944</v>
       </c>
       <c r="E17">
-        <v>0.09191174719398276</v>
+        <v>0.1163126410417661</v>
       </c>
       <c r="F17">
-        <v>0.7093113335363981</v>
+        <v>0.9847973448937779</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.390748672821417</v>
+        <v>0.4723506711355867</v>
       </c>
       <c r="L17">
-        <v>0.3567771517614347</v>
+        <v>0.2206450378356379</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7187165841142482</v>
+        <v>1.720779680501834</v>
       </c>
       <c r="O17">
-        <v>2.040205024814128</v>
+        <v>3.464363254555025</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.711654661601528</v>
+        <v>0.8054826634902099</v>
       </c>
       <c r="C18">
-        <v>0.1045252448272223</v>
+        <v>0.1609926504160484</v>
       </c>
       <c r="D18">
-        <v>0.08061929051855543</v>
+        <v>0.05142589492628957</v>
       </c>
       <c r="E18">
-        <v>0.09038413121927036</v>
+        <v>0.1160747484478186</v>
       </c>
       <c r="F18">
-        <v>0.6996671419780967</v>
+        <v>0.9838382769862122</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.355895861606172</v>
+        <v>0.4622289883929511</v>
       </c>
       <c r="L18">
-        <v>0.3482066887701478</v>
+        <v>0.21854549464706</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7286921523856398</v>
+        <v>1.724971943806419</v>
       </c>
       <c r="O18">
-        <v>2.021674948358793</v>
+        <v>3.464990813210079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.696777420153524</v>
+        <v>0.8014218085242817</v>
       </c>
       <c r="C19">
-        <v>0.1044611951768317</v>
+        <v>0.160973745007162</v>
       </c>
       <c r="D19">
-        <v>0.08014197857362859</v>
+        <v>0.05125880530342641</v>
       </c>
       <c r="E19">
-        <v>0.08986934835931848</v>
+        <v>0.115995163672558</v>
       </c>
       <c r="F19">
-        <v>0.6964265179641558</v>
+        <v>0.9835225527429401</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.344104644673166</v>
+        <v>0.458802513509994</v>
       </c>
       <c r="L19">
-        <v>0.3453113458188142</v>
+        <v>0.2178363823606446</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7320922728544303</v>
+        <v>1.726401020780411</v>
       </c>
       <c r="O19">
-        <v>2.015478820658956</v>
+        <v>3.465233088753081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.763796585569679</v>
+        <v>0.8197119948320903</v>
       </c>
       <c r="C20">
-        <v>0.1047509443792976</v>
+        <v>0.1610594922270039</v>
       </c>
       <c r="D20">
-        <v>0.08228939099675614</v>
+        <v>0.05200980928197652</v>
       </c>
       <c r="E20">
-        <v>0.09219564751593268</v>
+        <v>0.1163571262242193</v>
       </c>
       <c r="F20">
-        <v>0.7111081355337205</v>
+        <v>0.9849791212726018</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.397203703626019</v>
+        <v>0.4742242261522733</v>
       </c>
       <c r="L20">
-        <v>0.3583664734864556</v>
+        <v>0.2210344501058614</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.716881115726653</v>
+        <v>1.720008370237496</v>
       </c>
       <c r="O20">
-        <v>2.043671882632736</v>
+        <v>3.464261259627619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.990296809759457</v>
+        <v>0.8814395842551903</v>
       </c>
       <c r="C21">
-        <v>0.1057513744061325</v>
+        <v>0.1613592449455865</v>
       </c>
       <c r="D21">
-        <v>0.08949611071365382</v>
+        <v>0.05451691605150444</v>
       </c>
       <c r="E21">
-        <v>0.1001896548750629</v>
+        <v>0.1176400788153131</v>
       </c>
       <c r="F21">
-        <v>0.7622374838885548</v>
+        <v>0.9904988254851617</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.576332963048287</v>
+        <v>0.5260752291709139</v>
       </c>
       <c r="L21">
-        <v>0.4027101545823228</v>
+        <v>0.2319013928573241</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6673849187167047</v>
+        <v>1.699201417196032</v>
       </c>
       <c r="O21">
-        <v>2.144048839684046</v>
+        <v>3.463068457935236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.139443308376826</v>
+        <v>0.9219835614671865</v>
       </c>
       <c r="C22">
-        <v>0.1064257068878547</v>
+        <v>0.1615637341537735</v>
       </c>
       <c r="D22">
-        <v>0.09420149654621923</v>
+        <v>0.05614328684676195</v>
       </c>
       <c r="E22">
-        <v>0.1055567529481181</v>
+        <v>0.1185282570389283</v>
       </c>
       <c r="F22">
-        <v>0.7970944841502785</v>
+        <v>0.99457244466943</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.694033991968126</v>
+        <v>0.5599870924887966</v>
       </c>
       <c r="L22">
-        <v>0.4320863127440049</v>
+        <v>0.23909398894547</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6362879660069369</v>
+        <v>1.686103658704935</v>
       </c>
       <c r="O22">
-        <v>2.214154400496426</v>
+        <v>3.463833171941815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.059730430827585</v>
+        <v>0.9003262772671405</v>
       </c>
       <c r="C23">
-        <v>0.1060638981817377</v>
+        <v>0.1614538155716403</v>
       </c>
       <c r="D23">
-        <v>0.09169046299929562</v>
+        <v>0.05527638335660612</v>
       </c>
       <c r="E23">
-        <v>0.1026785300314934</v>
+        <v>0.1180496788865746</v>
       </c>
       <c r="F23">
-        <v>0.778352242597677</v>
+        <v>0.9923556399579923</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.631151103788511</v>
+        <v>0.5418856497702791</v>
       </c>
       <c r="L23">
-        <v>0.4163690978316765</v>
+        <v>0.2352469181525549</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6527670914189416</v>
+        <v>1.693048335354863</v>
       </c>
       <c r="O23">
-        <v>2.176306349728719</v>
+        <v>3.463283748597632</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760111542737235</v>
+        <v>0.8187065412446373</v>
       </c>
       <c r="C24">
-        <v>0.1047349325372338</v>
+        <v>0.1610547392956505</v>
       </c>
       <c r="D24">
-        <v>0.08217150039227761</v>
+        <v>0.05196862823083848</v>
       </c>
       <c r="E24">
-        <v>0.09206725320501974</v>
+        <v>0.1163369973865755</v>
       </c>
       <c r="F24">
-        <v>0.7102953579764701</v>
+        <v>0.9848967784005822</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.394285256042934</v>
+        <v>0.4733771964214952</v>
       </c>
       <c r="L24">
-        <v>0.3576478327201897</v>
+        <v>0.2208583679664571</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7177105034548834</v>
+        <v>1.720356898755035</v>
       </c>
       <c r="O24">
-        <v>2.042103105961985</v>
+        <v>3.464306830548281</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.440903859487037</v>
+        <v>0.7315541259502822</v>
       </c>
       <c r="C25">
-        <v>0.1033867019418295</v>
+        <v>0.1606617853958952</v>
       </c>
       <c r="D25">
-        <v>0.07187402687466005</v>
+        <v>0.04834920894109729</v>
       </c>
       <c r="E25">
-        <v>0.08117050063173537</v>
+        <v>0.1147035761416006</v>
       </c>
       <c r="F25">
-        <v>0.6424477665939605</v>
+        <v>0.9788543130697605</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.140919545330121</v>
+        <v>0.3996011089199101</v>
       </c>
       <c r="L25">
-        <v>0.295768713244712</v>
+        <v>0.2057288020057086</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7928151252284312</v>
+        <v>1.751961663483052</v>
       </c>
       <c r="O25">
-        <v>1.914838706049437</v>
+        <v>3.47204249641868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6681570004208766</v>
+        <v>1.208418592485884</v>
       </c>
       <c r="C2">
-        <v>0.1604053655967164</v>
+        <v>0.1024644753217956</v>
       </c>
       <c r="D2">
-        <v>0.04564022844408555</v>
+        <v>0.0642546648908322</v>
       </c>
       <c r="E2">
-        <v>0.1136851970799135</v>
+        <v>0.07355343990361618</v>
       </c>
       <c r="F2">
-        <v>0.9761275492257369</v>
+        <v>0.5966268085527417</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3453905516442148</v>
+        <v>0.9555797623440299</v>
       </c>
       <c r="L2">
-        <v>0.1949250355620507</v>
+        <v>0.2512144197889228</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.777081668538464</v>
+        <v>0.8521434783327297</v>
       </c>
       <c r="O2">
-        <v>3.483441505578071</v>
+        <v>1.834282180502015</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6256801764266697</v>
+        <v>1.052050340845284</v>
       </c>
       <c r="C3">
-        <v>0.1602524579789559</v>
+        <v>0.1018822296513697</v>
       </c>
       <c r="D3">
-        <v>0.0437770337975536</v>
+        <v>0.05906228240920086</v>
       </c>
       <c r="E3">
-        <v>0.1131101741652856</v>
+        <v>0.06861423078541407</v>
       </c>
       <c r="F3">
-        <v>0.9753539534409441</v>
+        <v>0.5678549162471427</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3087244553701112</v>
+        <v>0.8304474726730007</v>
       </c>
       <c r="L3">
-        <v>0.1878130467408994</v>
+        <v>0.2215335133651024</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.795260466065978</v>
+        <v>0.8947188306507066</v>
       </c>
       <c r="O3">
-        <v>3.494724656376036</v>
+        <v>1.787019331169546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5998426459453867</v>
+        <v>0.9565055475980273</v>
       </c>
       <c r="C4">
-        <v>0.1601689875636119</v>
+        <v>0.1015454881516646</v>
       </c>
       <c r="D4">
-        <v>0.04261964192335199</v>
+        <v>0.05585841245662948</v>
       </c>
       <c r="E4">
-        <v>0.1128139854476196</v>
+        <v>0.06568216390490633</v>
       </c>
       <c r="F4">
-        <v>0.9754090563247644</v>
+        <v>0.5512226241780169</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2862491978764012</v>
+        <v>0.7537647392714177</v>
       </c>
       <c r="L4">
-        <v>0.1835499510698924</v>
+        <v>0.2035279844609477</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.806992143303564</v>
+        <v>0.9219831657767994</v>
       </c>
       <c r="O4">
-        <v>3.503407944328472</v>
+        <v>1.761348383418976</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5893754893461676</v>
+        <v>0.9176711630624368</v>
       </c>
       <c r="C5">
-        <v>0.1601376117360331</v>
+        <v>0.101413444302203</v>
       </c>
       <c r="D5">
-        <v>0.04214465020790215</v>
+        <v>0.05454865502840534</v>
       </c>
       <c r="E5">
-        <v>0.1127076087529169</v>
+        <v>0.0645113295079085</v>
       </c>
       <c r="F5">
-        <v>0.9755648813239333</v>
+        <v>0.544691991870657</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2771003453930376</v>
+        <v>0.7225419964379682</v>
       </c>
       <c r="L5">
-        <v>0.1818388534496052</v>
+        <v>0.1962407873560039</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.811916181421156</v>
+        <v>0.9333694546550024</v>
       </c>
       <c r="O5">
-        <v>3.507388020435528</v>
+        <v>1.751691831607175</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5876411801836241</v>
+        <v>0.9112283773142167</v>
       </c>
       <c r="C6">
-        <v>0.1601325617832323</v>
+        <v>0.1013918303941672</v>
       </c>
       <c r="D6">
-        <v>0.04206557674898193</v>
+        <v>0.05433091426600356</v>
       </c>
       <c r="E6">
-        <v>0.1126908106308555</v>
+        <v>0.06431832649633762</v>
       </c>
       <c r="F6">
-        <v>0.97559881335075</v>
+        <v>0.5436221506836603</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2755818031805006</v>
+        <v>0.7173587389964382</v>
       </c>
       <c r="L6">
-        <v>0.1815563084686715</v>
+        <v>0.1950336504506964</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.812742468205569</v>
+        <v>0.9352766154517003</v>
       </c>
       <c r="O6">
-        <v>3.508075583253046</v>
+        <v>1.750135900214246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5997012309481136</v>
+        <v>0.9559814258851418</v>
       </c>
       <c r="C7">
-        <v>0.16016855370653</v>
+        <v>0.1015436864323647</v>
       </c>
       <c r="D7">
-        <v>0.04261324953695578</v>
+        <v>0.05584076568725749</v>
       </c>
       <c r="E7">
-        <v>0.1128124927954275</v>
+        <v>0.06566627809156955</v>
       </c>
       <c r="F7">
-        <v>0.975410617727519</v>
+        <v>0.5511335655044363</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2861257721453114</v>
+        <v>0.7533435673812789</v>
       </c>
       <c r="L7">
-        <v>0.1835267686367104</v>
+        <v>0.2034295096609497</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.807057970453677</v>
+        <v>0.9221356167116426</v>
       </c>
       <c r="O7">
-        <v>3.503459832935476</v>
+        <v>1.761214942351558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6534608408236409</v>
+        <v>1.154396011538637</v>
       </c>
       <c r="C8">
-        <v>0.1603504931666215</v>
+        <v>0.1022593829608489</v>
       </c>
       <c r="D8">
-        <v>0.04500058810113927</v>
+        <v>0.06246747006785114</v>
       </c>
       <c r="E8">
-        <v>0.1134751359153938</v>
+        <v>0.0718287147978991</v>
       </c>
       <c r="F8">
-        <v>0.975750833764117</v>
+        <v>0.5864838111446673</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3327404938336542</v>
+        <v>0.9123961529681139</v>
       </c>
       <c r="L8">
-        <v>0.1924513417285709</v>
+        <v>0.240932099192193</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.783231451866615</v>
+        <v>0.8665863962947826</v>
       </c>
       <c r="O8">
-        <v>3.48696769487924</v>
+        <v>1.81726781778076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7607922397304776</v>
+        <v>1.547978156607314</v>
       </c>
       <c r="C9">
-        <v>0.160789084672011</v>
+        <v>0.103829732959241</v>
       </c>
       <c r="D9">
-        <v>0.0495752740928026</v>
+        <v>0.07534780401383046</v>
       </c>
       <c r="E9">
-        <v>0.1152251885736959</v>
+        <v>0.08477375680086752</v>
       </c>
       <c r="F9">
-        <v>0.980622176780507</v>
+        <v>0.6646184698578494</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4244360343206779</v>
+        <v>1.226038351035186</v>
       </c>
       <c r="L9">
-        <v>0.2107730314314864</v>
+        <v>0.3164404143302875</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.741028368442902</v>
+        <v>0.7668698369493576</v>
       </c>
       <c r="O9">
-        <v>3.468550780601646</v>
+        <v>1.955544091639268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8407906717435765</v>
+        <v>1.841078511362781</v>
       </c>
       <c r="C10">
-        <v>0.161160135818065</v>
+        <v>0.105088786440497</v>
       </c>
       <c r="D10">
-        <v>0.05287049434146951</v>
+        <v>0.0847569315477017</v>
       </c>
       <c r="E10">
-        <v>0.1167850329405518</v>
+        <v>0.0949009062764361</v>
       </c>
       <c r="F10">
-        <v>0.9867636300129163</v>
+        <v>0.7282976180853353</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4919627630805508</v>
+        <v>1.458377565736754</v>
       </c>
       <c r="L10">
-        <v>0.2247330074572744</v>
+        <v>0.3734587975500432</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.712775750114286</v>
+        <v>0.6996699236551827</v>
       </c>
       <c r="O10">
-        <v>3.4635071857806</v>
+        <v>2.077057824621392</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8774279078908478</v>
+        <v>1.97555762450591</v>
       </c>
       <c r="C11">
-        <v>0.1613393189856325</v>
+        <v>0.105685362920056</v>
       </c>
       <c r="D11">
-        <v>0.0543551657374266</v>
+        <v>0.08902942792258983</v>
       </c>
       <c r="E11">
-        <v>0.1175540468047345</v>
+        <v>0.09966355690634643</v>
       </c>
       <c r="F11">
-        <v>0.9901139800157068</v>
+        <v>0.758842485929236</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.522713887515124</v>
+        <v>1.564690863499663</v>
       </c>
       <c r="L11">
-        <v>0.2311919513841616</v>
+        <v>0.399814513798205</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.700520497415758</v>
+        <v>0.6705203327840552</v>
       </c>
       <c r="O11">
-        <v>3.463055735569839</v>
+        <v>2.137288272929567</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8913362473992379</v>
+        <v>2.026671167042707</v>
       </c>
       <c r="C12">
-        <v>0.1614086459383088</v>
+        <v>0.1059147817090818</v>
       </c>
       <c r="D12">
-        <v>0.05491529280821084</v>
+        <v>0.090646510415759</v>
       </c>
       <c r="E12">
-        <v>0.1178537829382407</v>
+        <v>0.1014913597215141</v>
       </c>
       <c r="F12">
-        <v>0.9914626671603912</v>
+        <v>0.7706547318892945</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5343628709393045</v>
+        <v>1.605055908477397</v>
       </c>
       <c r="L12">
-        <v>0.2336533325760399</v>
+        <v>0.4098619949936477</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.695965610553354</v>
+        <v>0.6596959025171563</v>
       </c>
       <c r="O12">
-        <v>3.463149727143303</v>
+        <v>2.160863961937537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8883393092922915</v>
+        <v>2.015654128604638</v>
       </c>
       <c r="C13">
-        <v>0.1613936498900728</v>
+        <v>0.1058652148315389</v>
       </c>
       <c r="D13">
-        <v>0.05479475256212396</v>
+        <v>0.09029827425185744</v>
       </c>
       <c r="E13">
-        <v>0.1177888504513263</v>
+        <v>0.101096597895495</v>
       </c>
       <c r="F13">
-        <v>0.9911686468554421</v>
+        <v>0.7680995185539103</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5318538755440727</v>
+        <v>1.596357549528079</v>
       </c>
       <c r="L13">
-        <v>0.2331225411532358</v>
+        <v>0.4076949861619994</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.69694276497825</v>
+        <v>0.6620174632214111</v>
       </c>
       <c r="O13">
-        <v>3.463117701821034</v>
+        <v>2.155751446872557</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8785714656409596</v>
+        <v>1.979758828293626</v>
       </c>
       <c r="C14">
-        <v>0.1613449931260647</v>
+        <v>0.1057041665283833</v>
       </c>
       <c r="D14">
-        <v>0.05440128966650093</v>
+        <v>0.08916248091568946</v>
       </c>
       <c r="E14">
-        <v>0.1175785354872723</v>
+        <v>0.09981343324624703</v>
       </c>
       <c r="F14">
-        <v>0.9902233346552407</v>
+        <v>0.7598092527036187</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5236721752428934</v>
+        <v>1.568009482484342</v>
       </c>
       <c r="L14">
-        <v>0.2313941401271364</v>
+        <v>0.4006397382494384</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.700144041971906</v>
+        <v>0.6696254559249661</v>
       </c>
       <c r="O14">
-        <v>3.46305815875678</v>
+        <v>2.139212141485984</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8725928663614866</v>
+        <v>1.957797315756693</v>
       </c>
       <c r="C15">
-        <v>0.1613153808426802</v>
+        <v>0.10560597926073</v>
       </c>
       <c r="D15">
-        <v>0.05416000995261072</v>
+        <v>0.08846667718601964</v>
       </c>
       <c r="E15">
-        <v>0.1174508214333905</v>
+        <v>0.09903067945156607</v>
       </c>
       <c r="F15">
-        <v>0.9896547181361655</v>
+        <v>0.7547637855239913</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5186611788586504</v>
+        <v>1.550659875098575</v>
       </c>
       <c r="L15">
-        <v>0.230337463276868</v>
+        <v>0.3963271572972502</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.70211610666756</v>
+        <v>0.6743137243703323</v>
       </c>
       <c r="O15">
-        <v>3.463056188856058</v>
+        <v>2.129183030525041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8384012237601155</v>
+        <v>1.832315097066925</v>
       </c>
       <c r="C16">
-        <v>0.1611486331463325</v>
+        <v>0.1050502850136894</v>
       </c>
       <c r="D16">
-        <v>0.05277317698605799</v>
+        <v>0.08447758259692506</v>
       </c>
       <c r="E16">
-        <v>0.1167359703864292</v>
+        <v>0.09459294911181004</v>
       </c>
       <c r="F16">
-        <v>0.9865558719802578</v>
+        <v>0.7263347499692117</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4899537212524478</v>
+        <v>1.451443680788515</v>
       </c>
       <c r="L16">
-        <v>0.2243130763582855</v>
+        <v>0.3717453894585532</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.713588678272762</v>
+        <v>0.7016043058862831</v>
       </c>
       <c r="O16">
-        <v>3.463573767836522</v>
+        <v>2.073225950226259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8174881541654031</v>
+        <v>1.755646230363851</v>
       </c>
       <c r="C17">
-        <v>0.1610489857897406</v>
+        <v>0.1047155425855664</v>
       </c>
       <c r="D17">
-        <v>0.05191871009630944</v>
+        <v>0.08202861916160487</v>
       </c>
       <c r="E17">
-        <v>0.1163126410417661</v>
+        <v>0.09191174719398276</v>
       </c>
       <c r="F17">
-        <v>0.9847973448937779</v>
+        <v>0.7093113335363981</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4723506711355867</v>
+        <v>1.390748672821417</v>
       </c>
       <c r="L17">
-        <v>0.2206450378356379</v>
+        <v>0.3567771517614773</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.720779680501834</v>
+        <v>0.7187165841141949</v>
       </c>
       <c r="O17">
-        <v>3.464363254555025</v>
+        <v>2.040205024814156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8054826634902099</v>
+        <v>1.711654661601528</v>
       </c>
       <c r="C18">
-        <v>0.1609926504160484</v>
+        <v>0.1045252448273288</v>
       </c>
       <c r="D18">
-        <v>0.05142589492628957</v>
+        <v>0.08061929051850569</v>
       </c>
       <c r="E18">
-        <v>0.1160747484478186</v>
+        <v>0.09038413121928812</v>
       </c>
       <c r="F18">
-        <v>0.9838382769862122</v>
+        <v>0.6996671419780967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4622289883929511</v>
+        <v>1.355895861606029</v>
       </c>
       <c r="L18">
-        <v>0.21854549464706</v>
+        <v>0.3482066887702189</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.724971943806419</v>
+        <v>0.7286921523855829</v>
       </c>
       <c r="O18">
-        <v>3.464990813210079</v>
+        <v>2.021674948358651</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8014218085242817</v>
+        <v>1.696777420153524</v>
       </c>
       <c r="C19">
-        <v>0.160973745007162</v>
+        <v>0.1044611951770733</v>
       </c>
       <c r="D19">
-        <v>0.05125880530342641</v>
+        <v>0.08014197857345806</v>
       </c>
       <c r="E19">
-        <v>0.115995163672558</v>
+        <v>0.08986934835932203</v>
       </c>
       <c r="F19">
-        <v>0.9835225527429401</v>
+        <v>0.6964265179641487</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.458802513509994</v>
+        <v>1.344104644673166</v>
       </c>
       <c r="L19">
-        <v>0.2178363823606446</v>
+        <v>0.3453113458188994</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.726401020780411</v>
+        <v>0.7320922728543771</v>
       </c>
       <c r="O19">
-        <v>3.465233088753081</v>
+        <v>2.015478820658956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8197119948320903</v>
+        <v>1.763796585569622</v>
       </c>
       <c r="C20">
-        <v>0.1610594922270039</v>
+        <v>0.1047509443791768</v>
       </c>
       <c r="D20">
-        <v>0.05200980928197652</v>
+        <v>0.08228939099675614</v>
       </c>
       <c r="E20">
-        <v>0.1163571262242193</v>
+        <v>0.09219564751593268</v>
       </c>
       <c r="F20">
-        <v>0.9849791212726018</v>
+        <v>0.7111081355337134</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4742242261522733</v>
+        <v>1.397203703625962</v>
       </c>
       <c r="L20">
-        <v>0.2210344501058614</v>
+        <v>0.3583664734863987</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.720008370237496</v>
+        <v>0.7168811157267108</v>
       </c>
       <c r="O20">
-        <v>3.464261259627619</v>
+        <v>2.043671882632651</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8814395842551903</v>
+        <v>1.990296809759343</v>
       </c>
       <c r="C21">
-        <v>0.1613592449455865</v>
+        <v>0.1057513744061254</v>
       </c>
       <c r="D21">
-        <v>0.05451691605150444</v>
+        <v>0.08949611071405172</v>
       </c>
       <c r="E21">
-        <v>0.1176400788153131</v>
+        <v>0.1001896548750594</v>
       </c>
       <c r="F21">
-        <v>0.9904988254851617</v>
+        <v>0.7622374838885548</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5260752291709139</v>
+        <v>1.576332963048372</v>
       </c>
       <c r="L21">
-        <v>0.2319013928573241</v>
+        <v>0.4027101545823228</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.699201417196032</v>
+        <v>0.6673849187166949</v>
       </c>
       <c r="O21">
-        <v>3.463068457935236</v>
+        <v>2.14404883968416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9219835614671865</v>
+        <v>2.13944330837694</v>
       </c>
       <c r="C22">
-        <v>0.1615637341537735</v>
+        <v>0.1064257068873928</v>
       </c>
       <c r="D22">
-        <v>0.05614328684676195</v>
+        <v>0.09420149654615528</v>
       </c>
       <c r="E22">
-        <v>0.1185282570389283</v>
+        <v>0.1055567529481145</v>
       </c>
       <c r="F22">
-        <v>0.99457244466943</v>
+        <v>0.7970944841502927</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5599870924887966</v>
+        <v>1.694033991968183</v>
       </c>
       <c r="L22">
-        <v>0.23909398894547</v>
+        <v>0.432086312743948</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.686103658704935</v>
+        <v>0.6362879660069822</v>
       </c>
       <c r="O22">
-        <v>3.463833171941815</v>
+        <v>2.214154400496483</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9003262772671405</v>
+        <v>2.059730430827528</v>
       </c>
       <c r="C23">
-        <v>0.1614538155716403</v>
+        <v>0.1060638981818443</v>
       </c>
       <c r="D23">
-        <v>0.05527638335660612</v>
+        <v>0.09169046299917483</v>
       </c>
       <c r="E23">
-        <v>0.1180496788865746</v>
+        <v>0.1026785300314792</v>
       </c>
       <c r="F23">
-        <v>0.9923556399579923</v>
+        <v>0.778352242597677</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5418856497702791</v>
+        <v>1.631151103788397</v>
       </c>
       <c r="L23">
-        <v>0.2352469181525549</v>
+        <v>0.4163690978316907</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.693048335354863</v>
+        <v>0.6527670914189327</v>
       </c>
       <c r="O23">
-        <v>3.463283748597632</v>
+        <v>2.176306349728748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8187065412446373</v>
+        <v>1.760111542737263</v>
       </c>
       <c r="C24">
-        <v>0.1610547392956505</v>
+        <v>0.1047349325372764</v>
       </c>
       <c r="D24">
-        <v>0.05196862823083848</v>
+        <v>0.08217150039228471</v>
       </c>
       <c r="E24">
-        <v>0.1163369973865755</v>
+        <v>0.09206725320501974</v>
       </c>
       <c r="F24">
-        <v>0.9848967784005822</v>
+        <v>0.7102953579764701</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4733771964214952</v>
+        <v>1.394285256042963</v>
       </c>
       <c r="L24">
-        <v>0.2208583679664571</v>
+        <v>0.3576478327200903</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.720356898755035</v>
+        <v>0.7177105034548985</v>
       </c>
       <c r="O24">
-        <v>3.464306830548281</v>
+        <v>2.042103105961985</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7315541259502822</v>
+        <v>1.440903859487008</v>
       </c>
       <c r="C25">
-        <v>0.1606617853958952</v>
+        <v>0.1033867019419361</v>
       </c>
       <c r="D25">
-        <v>0.04834920894109729</v>
+        <v>0.0718740268746032</v>
       </c>
       <c r="E25">
-        <v>0.1147035761416006</v>
+        <v>0.08117050063173892</v>
       </c>
       <c r="F25">
-        <v>0.9788543130697605</v>
+        <v>0.6424477665939392</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3996011089199101</v>
+        <v>1.140919545330064</v>
       </c>
       <c r="L25">
-        <v>0.2057288020057086</v>
+        <v>0.2957687132446978</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.751961663483052</v>
+        <v>0.7928151252284357</v>
       </c>
       <c r="O25">
-        <v>3.47204249641868</v>
+        <v>1.914838706049352</v>
       </c>
     </row>
   </sheetData>
